--- a/TestList/6.0SJbuyclass.xlsx
+++ b/TestList/6.0SJbuyclass.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25200" windowHeight="12015"/>
+    <workbookView windowWidth="24525" windowHeight="12090"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="84">
   <si>
     <t>序号
 （id）</t>
@@ -126,19 +126,16 @@
     <t>buy</t>
   </si>
   <si>
-    <t>//*[@id="contentView"]/div[2]/div[1]/div[2]/div[3]/button[2]</t>
+    <t>//*[@class="btn-normal btn"]</t>
   </si>
   <si>
     <t>submitorder</t>
   </si>
   <si>
-    <t>//*[@id="contentView"]/div/ng-form/div/div[2]/div[2]/div/button</t>
+    <t>//*[@class="ui-btn btn-normal ml10 ng-scope"]</t>
   </si>
   <si>
     <t>comfirmorder</t>
-  </si>
-  <si>
-    <t>/html/body/div[4]/div/table/tbody/tr[2]/td/div/div/div[2]/button</t>
   </si>
   <si>
     <t>returnhome</t>
@@ -284,10 +281,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -306,11 +303,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -322,7 +348,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -337,59 +401,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -404,6 +416,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -412,35 +432,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -451,25 +448,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,157 +628,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -642,6 +639,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -660,11 +681,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -688,37 +726,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -726,19 +734,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -748,10 +745,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -760,131 +757,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1251,7 +1248,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1519,7 +1516,7 @@
         <v>13</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>10</v>
@@ -1530,7 +1527,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>7</v>
@@ -1550,7 +1547,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>12</v>
@@ -1559,7 +1556,7 @@
         <v>13</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>10</v>
@@ -1570,7 +1567,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>7</v>
@@ -1579,7 +1576,7 @@
         <v>8</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>10</v>
@@ -1590,7 +1587,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>16</v>
@@ -1599,10 +1596,10 @@
         <v>13</v>
       </c>
       <c r="E17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1610,7 +1607,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>16</v>
@@ -1619,10 +1616,10 @@
         <v>13</v>
       </c>
       <c r="E18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1630,7 +1627,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>12</v>
@@ -1639,7 +1636,7 @@
         <v>13</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>10</v>
@@ -1650,7 +1647,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>16</v>
@@ -1659,7 +1656,7 @@
         <v>13</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>24</v>
@@ -1670,7 +1667,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>12</v>
@@ -1679,7 +1676,7 @@
         <v>13</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>10</v>
@@ -1690,7 +1687,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>29</v>
@@ -1710,7 +1707,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>12</v>
@@ -1719,7 +1716,7 @@
         <v>13</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>10</v>
@@ -1730,7 +1727,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>7</v>
@@ -1739,7 +1736,7 @@
         <v>13</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>10</v>
@@ -1750,7 +1747,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>16</v>
@@ -1759,7 +1756,7 @@
         <v>13</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>18</v>
@@ -1770,7 +1767,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>12</v>
@@ -1779,7 +1776,7 @@
         <v>13</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>10</v>
@@ -1790,7 +1787,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>12</v>
@@ -1799,7 +1796,7 @@
         <v>13</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>10</v>
@@ -1810,7 +1807,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>12</v>
@@ -1819,7 +1816,7 @@
         <v>13</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>10</v>
@@ -1830,7 +1827,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>12</v>
@@ -1839,7 +1836,7 @@
         <v>13</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>10</v>
@@ -1850,7 +1847,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>12</v>
@@ -1859,7 +1856,7 @@
         <v>13</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>10</v>
@@ -1870,7 +1867,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>16</v>
@@ -1879,10 +1876,10 @@
         <v>13</v>
       </c>
       <c r="E31" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1890,7 +1887,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>12</v>
@@ -1899,7 +1896,7 @@
         <v>13</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>10</v>
@@ -1910,7 +1907,7 @@
         <v>36</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>29</v>
@@ -1930,7 +1927,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>12</v>
@@ -1939,7 +1936,7 @@
         <v>13</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>10</v>
@@ -1950,7 +1947,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>12</v>
@@ -1959,7 +1956,7 @@
         <v>13</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>10</v>
@@ -1970,7 +1967,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>12</v>
@@ -1979,7 +1976,7 @@
         <v>13</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>10</v>
@@ -1990,7 +1987,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>29</v>
@@ -2007,17 +2004,17 @@
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D3 D4 D5 D6 D7 D8 D9 D16 D17 D18 D19 D22 D23 D24 D27 D32 D33 D34 D35 D36 D37 D20:D21 D25:D26 D28:D31">
-      <formula1>"URL,Xpath"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C23 C24 C27 C25:C26 C28:C29 C30:C31">
+      <formula1>"访问,输入,点击,等待"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C3 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C22 C33 C37 C4:C5 C20:C21">
       <formula1>"访问,输入,点击,等待,查验"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C23 C24 C27 C25:C26 C28:C29 C30:C31">
-      <formula1>"访问,输入,点击,等待"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D38:D65518">
       <formula1>"xpath,name,id,css,text"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D3 D4 D5 D6 D7 D8 D9 D16 D17 D18 D19 D22 D23 D24 D27 D32 D33 D34 D35 D36 D37 D20:D21 D25:D26 D28:D31">
+      <formula1>"URL,Xpath"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>

--- a/TestList/6.0SJbuyclass.xlsx
+++ b/TestList/6.0SJbuyclass.xlsx
@@ -120,7 +120,7 @@
     <t>classdetail</t>
   </si>
   <si>
-    <t>https://scjs2.59iedu.com/center/#/signUpTraining/introduction/4028fbb262d871b201634396f12e36f2</t>
+    <t>https://scjs2.59iedu.com/center/#/signUpTraining/introduction/2c90809471bf2fe501725e459f3e2904</t>
   </si>
   <si>
     <t>buy</t>
@@ -281,8 +281,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -311,37 +311,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -363,14 +333,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,6 +371,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -393,18 +387,17 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -416,17 +409,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -438,6 +431,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -448,187 +448,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -657,26 +657,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -707,26 +707,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -748,7 +748,7 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -757,29 +757,35 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -788,100 +794,94 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1248,7 +1248,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1295,7 +1295,7 @@
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -2004,24 +2004,25 @@
     </row>
   </sheetData>
   <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C3 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C22 C33 C37 C4:C5 C20:C21">
+      <formula1>"访问,输入,点击,等待,查验"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D3 D4 D5 D6 D7 D8 D9 D16 D17 D18 D19 D22 D23 D24 D27 D32 D33 D34 D35 D36 D37 D20:D21 D25:D26 D28:D31">
+      <formula1>"URL,Xpath"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C23 C24 C27 C25:C26 C28:C29 C30:C31">
       <formula1>"访问,输入,点击,等待"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C3 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C22 C33 C37 C4:C5 C20:C21">
-      <formula1>"访问,输入,点击,等待,查验"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D38:D65518">
       <formula1>"xpath,name,id,css,text"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D3 D4 D5 D6 D7 D8 D9 D16 D17 D18 D19 D22 D23 D24 D27 D32 D33 D34 D35 D36 D37 D20:D21 D25:D26 D28:D31">
-      <formula1>"URL,Xpath"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E14" r:id="rId1" display="https://scjs2.59iedu.com/index" tooltip="https://scjs2.59iedu.com/index"/>
     <hyperlink ref="E16" r:id="rId2" display="https://scjs2.59iedu.com/login/index.html"/>
     <hyperlink ref="E24" r:id="rId3" display="https://scjs2.59iedu.com/admin/#/orderManage/" tooltip="https://scjs2.59iedu.com/admin/#/orderManage/"/>
-    <hyperlink ref="E10" r:id="rId4" display="https://scjs2.59iedu.com/center/#/signUpTraining/introduction/4028fbb262d871b201634396f12e36f2"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://scjs2.59iedu.com/index"/>
+    <hyperlink ref="E10" r:id="rId4" display="https://scjs2.59iedu.com/center/#/signUpTraining/introduction/2c90809471bf2fe501725e459f3e2904"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
